--- a/resources/data/aaaDataListAndUse.xlsx
+++ b/resources/data/aaaDataListAndUse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Dataset</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Strings</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>https://sports-statistics.com/database/basketball-data/nba/NBA-playerlist.csv</t>
   </si>
   <si>
@@ -146,15 +143,6 @@
     <t>https://github.com/droglenc/NCWrangling/raw/main/resources/data/InchLakeTags.xlsx</t>
   </si>
   <si>
-    <t>Where</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Exercises</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/droglenc/FSAdata/master/data-raw/WalleyeErie2.csv</t>
   </si>
   <si>
@@ -183,6 +171,21 @@
   </si>
   <si>
     <t>LakeActivity.csv</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Student Data</t>
+  </si>
+  <si>
+    <t>Resource Sampling Data</t>
+  </si>
+  <si>
+    <t>Mayfly Abundance</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +533,7 @@
     <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,315 +570,276 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="J20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="K21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>42</v>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/aaaDataListAndUse.xlsx
+++ b/resources/data/aaaDataListAndUse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Dataset</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Mayfly Abundance</t>
+  </si>
+  <si>
+    <t>https://github.com/droglenc/NCWrangling/raw/main/resources/data/Phenology%20Slovenia%202004-2019.xlsx</t>
+  </si>
+  <si>
+    <t>Phenology Slovenia 2004-2019.xlsx</t>
+  </si>
+  <si>
+    <t>Timecard.csv</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/droglenc/BookWrangling/main/data/Timecard.csv</t>
   </si>
 </sst>
 </file>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,6 +854,28 @@
         <v>49</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
